--- a/CARROT/experiment/实验记录.xlsx
+++ b/CARROT/experiment/实验记录.xlsx
@@ -878,13 +878,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,12 +1539,12 @@
       <c r="E1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="K1" s="4" t="s">
         <v>82</v>
       </c>
@@ -2230,7 +2230,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3585,11 +3585,11 @@
       <c r="E1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="K1" s="4"/>
       <c r="R1" s="4"/>
     </row>
@@ -4331,12 +4331,12 @@
       <c r="E1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="K1" s="4" t="s">
         <v>82</v>
       </c>
@@ -5022,7 +5022,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5042,13 +5042,13 @@
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
       <c r="N1" s="4" t="s">
         <v>82</v>
       </c>
@@ -5825,7 +5825,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6775,7 +6775,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6867,9 +6867,21 @@
       <c r="F2">
         <v>50000</v>
       </c>
-      <c r="K2" t="e">
+      <c r="G2">
+        <v>612682</v>
+      </c>
+      <c r="H2">
+        <v>112381</v>
+      </c>
+      <c r="I2">
+        <v>12253631</v>
+      </c>
+      <c r="J2">
+        <v>1882617</v>
+      </c>
+      <c r="K2">
         <f>M2/I2</f>
-        <v>#DIV/0!</v>
+        <v>0.65947750507584246</v>
       </c>
       <c r="L2" s="4">
         <v>24820432</v>
@@ -6890,7 +6902,7 @@
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q10" si="0">I2/1000/1000</f>
-        <v>0</v>
+        <v>12.253630999999999</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R10" si="1">L2/1000/1000</f>
@@ -6898,7 +6910,7 @@
       </c>
       <c r="S2">
         <f>(R2-Q2)/R2</f>
-        <v>1</v>
+        <v>0.50630871372424147</v>
       </c>
       <c r="T2">
         <f>F2*E2</f>
@@ -6928,9 +6940,21 @@
       <c r="F3">
         <v>80000</v>
       </c>
-      <c r="K3" t="e">
+      <c r="G3">
+        <v>627375</v>
+      </c>
+      <c r="H3">
+        <v>87752.5</v>
+      </c>
+      <c r="I3">
+        <v>12547496</v>
+      </c>
+      <c r="J3">
+        <v>2629343</v>
+      </c>
+      <c r="K3">
         <f t="shared" ref="K3:K10" si="2">M3/I3</f>
-        <v>#DIV/0!</v>
+        <v>0.95896424274612246</v>
       </c>
       <c r="L3">
         <v>42548423</v>
@@ -6951,7 +6975,7 @@
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.547495999999999</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
@@ -6959,7 +6983,7 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S10" si="5">(R3-Q3)/R3</f>
-        <v>1</v>
+        <v>0.70510079774284473</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T10" si="6">F3*E3</f>
@@ -6989,9 +7013,21 @@
       <c r="F4">
         <v>60000</v>
       </c>
-      <c r="K4" t="e">
+      <c r="G4">
+        <v>910983</v>
+      </c>
+      <c r="H4">
+        <v>235335</v>
+      </c>
+      <c r="I4">
+        <v>18219656</v>
+      </c>
+      <c r="J4">
+        <v>2816093</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.52748553540198562</v>
       </c>
       <c r="L4">
         <v>30216782</v>
@@ -7012,7 +7048,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.219656000000001</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
@@ -7020,7 +7056,7 @@
       </c>
       <c r="S4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.39703519719604818</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
@@ -7050,9 +7086,21 @@
       <c r="F5">
         <v>30000</v>
       </c>
-      <c r="K5" t="e">
+      <c r="G5">
+        <v>319909</v>
+      </c>
+      <c r="H5">
+        <v>117135</v>
+      </c>
+      <c r="I5">
+        <v>11516726</v>
+      </c>
+      <c r="J5">
+        <v>1844849</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.70167459050428049</v>
       </c>
       <c r="L5" s="4">
         <v>24820432</v>
@@ -7073,7 +7121,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.516726</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
@@ -7081,7 +7129,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.53599816473782569</v>
       </c>
       <c r="T5">
         <f t="shared" si="6"/>
@@ -7111,9 +7159,21 @@
       <c r="F6">
         <v>50000</v>
       </c>
-      <c r="K6" t="e">
+      <c r="G6">
+        <v>482184</v>
+      </c>
+      <c r="H6">
+        <v>209656</v>
+      </c>
+      <c r="I6">
+        <v>17358614</v>
+      </c>
+      <c r="J6">
+        <v>3280249</v>
+      </c>
+      <c r="K6">
         <f>M6/I6</f>
-        <v>#DIV/0!</v>
+        <v>0.69317746220982845</v>
       </c>
       <c r="L6">
         <v>42548423</v>
@@ -7134,7 +7194,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.358614000000003</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -7142,7 +7202,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.59202685373321584</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
@@ -7172,9 +7232,21 @@
       <c r="F7">
         <v>30000</v>
       </c>
-      <c r="K7" t="e">
+      <c r="G7">
+        <v>325298</v>
+      </c>
+      <c r="H7">
+        <v>101417</v>
+      </c>
+      <c r="I7">
+        <v>11710725</v>
+      </c>
+      <c r="J7">
+        <v>2085049</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.82066695272922896</v>
       </c>
       <c r="L7">
         <v>30216782</v>
@@ -7195,7 +7267,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.710725</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
@@ -7203,7 +7275,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.61244301262788337</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
@@ -7233,9 +7305,21 @@
       <c r="F8">
         <v>30000</v>
       </c>
-      <c r="K8" t="e">
+      <c r="G8">
+        <v>307102</v>
+      </c>
+      <c r="H8">
+        <v>133074</v>
+      </c>
+      <c r="I8">
+        <v>11669866</v>
+      </c>
+      <c r="J8">
+        <v>1914922</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.69246673440809003</v>
       </c>
       <c r="L8" s="4">
         <v>24820432</v>
@@ -7256,7 +7340,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.669866000000001</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
@@ -7264,7 +7348,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.52982824795313799</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
@@ -7294,9 +7378,21 @@
       <c r="F9">
         <v>40000</v>
       </c>
-      <c r="K9" t="e">
+      <c r="G9">
+        <v>384382</v>
+      </c>
+      <c r="H9">
+        <v>185996</v>
+      </c>
+      <c r="I9">
+        <v>14606501</v>
+      </c>
+      <c r="J9">
+        <v>1923433</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.82378387541273579</v>
       </c>
       <c r="L9">
         <v>42548423</v>
@@ -7317,7 +7413,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.606501</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
@@ -7325,7 +7421,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.65670875745500601</v>
       </c>
       <c r="T9">
         <f t="shared" si="6"/>
@@ -7355,9 +7451,21 @@
       <c r="F10">
         <v>30000</v>
       </c>
-      <c r="K10" t="e">
+      <c r="G10">
+        <v>318832</v>
+      </c>
+      <c r="H10">
+        <v>116538</v>
+      </c>
+      <c r="I10">
+        <v>12115610</v>
+      </c>
+      <c r="J10">
+        <v>2234549</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.79324152890362098</v>
       </c>
       <c r="L10">
         <v>30216782</v>
@@ -7378,7 +7486,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.11561</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
@@ -7386,7 +7494,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.59904367050071705</v>
       </c>
       <c r="T10">
         <f t="shared" si="6"/>
@@ -7441,15 +7549,15 @@
       <c r="B22" s="5"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="4"/>
@@ -9831,7 +9939,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10686,11 +10794,11 @@
       <c r="E1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="K1" s="4"/>
       <c r="R1" s="4"/>
     </row>

--- a/CARROT/experiment/实验记录.xlsx
+++ b/CARROT/experiment/实验记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" tabRatio="650" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="Sheet8" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet9" sheetId="15" r:id="rId15"/>
     <sheet name="CARROT-FIXED" sheetId="16" r:id="rId16"/>
+    <sheet name="CARROT-VARIABLE" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="130">
   <si>
     <t>程序：SplitCounter-v0.4</t>
   </si>
@@ -772,6 +773,39 @@
       <t>+random</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VARIABLE+LIP+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CARROT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARROT-Variable-v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first avaliable, shorter flow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIABLE COUNTERS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5022,7 +5056,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5824,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6774,8 +6808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7563,6 +7597,809 @@
       <c r="C26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>50000</v>
+      </c>
+      <c r="H3">
+        <v>358302</v>
+      </c>
+      <c r="I3">
+        <v>112927</v>
+      </c>
+      <c r="J3">
+        <v>7166046</v>
+      </c>
+      <c r="K3">
+        <v>1882617</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0">N3/J3</f>
+        <v>1.1276738943623861</v>
+      </c>
+      <c r="M3" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N3">
+        <v>8080963</v>
+      </c>
+      <c r="O3">
+        <f>N3/M3</f>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P3">
+        <v>886441</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="1">P3/C3</f>
+        <v>44322.05</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="2">J3/1000/1000</f>
+        <v>7.1660460000000006</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="3">M3/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="T3">
+        <f>(S3-R3)/S3</f>
+        <v>0.71128439666158905</v>
+      </c>
+      <c r="U3">
+        <v>498631</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V11" si="4">U3*C3</f>
+        <v>9972620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="5">D4</f>
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>80000</v>
+      </c>
+      <c r="H4">
+        <v>513073</v>
+      </c>
+      <c r="I4">
+        <v>196392</v>
+      </c>
+      <c r="J4">
+        <v>10261457</v>
+      </c>
+      <c r="K4">
+        <v>3410175</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.1725995635902386</v>
+      </c>
+      <c r="M4">
+        <v>42548423</v>
+      </c>
+      <c r="N4">
+        <v>12032580</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="6">N4/M4</f>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P4">
+        <v>1467185</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>73359.25</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>10.261457</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T11" si="7">(S4-R4)/S4</f>
+        <v>0.75882873496862624</v>
+      </c>
+      <c r="U4">
+        <v>789235</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>15784700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>60000</v>
+      </c>
+      <c r="H5">
+        <v>440637</v>
+      </c>
+      <c r="I5">
+        <v>138818</v>
+      </c>
+      <c r="J5">
+        <v>8812731</v>
+      </c>
+      <c r="K5">
+        <v>2657882</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.0905342509603437</v>
+      </c>
+      <c r="M5">
+        <v>30216782</v>
+      </c>
+      <c r="N5">
+        <v>9610585</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P5">
+        <v>1041956</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>52097.8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>8.8127309999999994</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>0.70834978390485126</v>
+      </c>
+      <c r="U5">
+        <v>568339</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>11366780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>30000</v>
+      </c>
+      <c r="H6">
+        <v>195270</v>
+      </c>
+      <c r="I6">
+        <v>86347.9</v>
+      </c>
+      <c r="J6">
+        <v>7029717</v>
+      </c>
+      <c r="K6">
+        <v>1844849</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.1495431466160018</v>
+      </c>
+      <c r="M6">
+        <v>24820348</v>
+      </c>
+      <c r="N6">
+        <v>8080963</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>0.32557815063672757</v>
+      </c>
+      <c r="P6">
+        <v>886441</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>24623.361111111109</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>7.0297169999999998</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>24.820348000000003</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>0.71677605003765466</v>
+      </c>
+      <c r="U6">
+        <v>302753</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>10899108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>50000</v>
+      </c>
+      <c r="H7">
+        <v>268317</v>
+      </c>
+      <c r="I7">
+        <v>143556</v>
+      </c>
+      <c r="J7">
+        <v>9659399</v>
+      </c>
+      <c r="K7">
+        <v>3280249</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.2456861964186385</v>
+      </c>
+      <c r="M7">
+        <v>42548423</v>
+      </c>
+      <c r="N7">
+        <v>12032580</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P7">
+        <v>1467185</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>40755.138888888891</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>9.6593989999999987</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>0.77297868360479538</v>
+      </c>
+      <c r="U7">
+        <v>516086</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>18579096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>30000</v>
+      </c>
+      <c r="H8">
+        <v>206469</v>
+      </c>
+      <c r="I8">
+        <v>76732</v>
+      </c>
+      <c r="J8">
+        <v>7432872</v>
+      </c>
+      <c r="K8">
+        <v>2085049</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.2929840578446663</v>
+      </c>
+      <c r="M8">
+        <v>30216782</v>
+      </c>
+      <c r="N8">
+        <v>9610585</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P8">
+        <v>1041956</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>28943.222222222223</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>7.4328720000000006</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>0.75401510326281596</v>
+      </c>
+      <c r="U8">
+        <v>281807</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>10145052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>30000</v>
+      </c>
+      <c r="H9">
+        <v>191157</v>
+      </c>
+      <c r="I9">
+        <v>94340.3</v>
+      </c>
+      <c r="J9">
+        <v>7263959</v>
+      </c>
+      <c r="K9">
+        <v>1914922</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.1124736524531595</v>
+      </c>
+      <c r="M9" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N9">
+        <v>8080963</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P9">
+        <v>886441</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>23327.394736842107</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>7.2639589999999998</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>24.820432</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>0.70733954187421078</v>
+      </c>
+      <c r="U9">
+        <v>299427</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>11378226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>40000</v>
+      </c>
+      <c r="H10">
+        <v>209910</v>
+      </c>
+      <c r="I10">
+        <v>117084</v>
+      </c>
+      <c r="J10">
+        <v>7976564</v>
+      </c>
+      <c r="K10">
+        <v>1923433</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.5084916262190087</v>
+      </c>
+      <c r="M10">
+        <v>42548423</v>
+      </c>
+      <c r="N10">
+        <v>12032580</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P10">
+        <v>1467185</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>38610.131578947367</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>7.9765640000000007</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>0.81252973817619512</v>
+      </c>
+      <c r="U10">
+        <v>394858</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>15004604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>30000</v>
+      </c>
+      <c r="H11">
+        <v>200460</v>
+      </c>
+      <c r="I11">
+        <v>90927.2</v>
+      </c>
+      <c r="J11">
+        <v>7617470</v>
+      </c>
+      <c r="K11">
+        <v>2234549</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.2616505217611622</v>
+      </c>
+      <c r="M11">
+        <v>30216782</v>
+      </c>
+      <c r="N11">
+        <v>9610585</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P11">
+        <v>1041956</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>27419.894736842107</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>7.61747</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>0.74790598151715826</v>
+      </c>
+      <c r="U11">
+        <v>291322</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>11070236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9939,7 +10776,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/CARROT/experiment/实验记录.xlsx
+++ b/CARROT/experiment/实验记录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Temp\scp20084\home\pengzheng\hello-world\CARROT\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Temp\scp55869\home\pengzheng\hello-world\CARROT\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" tabRatio="650" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" tabRatio="650" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="Sheet9" sheetId="15" r:id="rId15"/>
     <sheet name="CARROT-FIXED" sheetId="16" r:id="rId16"/>
     <sheet name="CARROT-VARIABLE" sheetId="17" r:id="rId17"/>
+    <sheet name="CARROT-VARIABLE (2)" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="134">
   <si>
     <t>程序：SplitCounter-v0.4</t>
   </si>
@@ -806,6 +807,45 @@
   <si>
     <t>Variable</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>program description: every time always find the first switch along the routing path to be the highest carry counter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARROT-Variable-v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>least loaded first along the routing path avaliable, shorter flow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>program description: every time always find the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> least loaded switch in the sownstream of the routing path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be the highest carry counter.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5055,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5858,8 +5898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6809,7 +6849,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7607,11 +7647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -8389,6 +8432,726 @@
       <c r="V11">
         <f t="shared" si="4"/>
         <v>11070236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>50000</v>
+      </c>
+      <c r="H3">
+        <v>378866</v>
+      </c>
+      <c r="I3">
+        <v>89098</v>
+      </c>
+      <c r="J3">
+        <v>7577325</v>
+      </c>
+      <c r="K3">
+        <v>1981495</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0">N3/J3</f>
+        <v>1.0664664640885801</v>
+      </c>
+      <c r="M3" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N3">
+        <v>8080963</v>
+      </c>
+      <c r="O3">
+        <f>N3/M3</f>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P3">
+        <v>886441</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="1">P3/C3</f>
+        <v>44322.05</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="2">J3/1000/1000</f>
+        <v>7.5773250000000001</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="3">M3/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="T3">
+        <f>(S3-R3)/S3</f>
+        <v>0.69471421770579989</v>
+      </c>
+      <c r="U3">
+        <v>501506</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V11" si="4">U3*C3</f>
+        <v>10030120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="5">D4</f>
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>80000</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4">
+        <v>42548423</v>
+      </c>
+      <c r="N4">
+        <v>12032580</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="6">N4/M4</f>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P4">
+        <v>1467185</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>73359.25</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T11" si="7">(S4-R4)/S4</f>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>789235</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>15784700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>60000</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5">
+        <v>30216782</v>
+      </c>
+      <c r="N5">
+        <v>9610585</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P5">
+        <v>1041956</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>52097.8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>568339</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>11366780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>30000</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6">
+        <v>24820348</v>
+      </c>
+      <c r="N6">
+        <v>8080963</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>0.32557815063672757</v>
+      </c>
+      <c r="P6">
+        <v>886441</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>24623.361111111109</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>24.820348000000003</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>302753</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>10899108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>50000</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7">
+        <v>42548423</v>
+      </c>
+      <c r="N7">
+        <v>12032580</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P7">
+        <v>1467185</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>40755.138888888891</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>516086</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>18579096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>30000</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8">
+        <v>30216782</v>
+      </c>
+      <c r="N8">
+        <v>9610585</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P8">
+        <v>1041956</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>28943.222222222223</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>281807</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>10145052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>30000</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N9">
+        <v>8080963</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P9">
+        <v>886441</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>23327.394736842107</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>24.820432</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>299427</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>11378226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>40000</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10">
+        <v>42548423</v>
+      </c>
+      <c r="N10">
+        <v>12032580</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P10">
+        <v>1467185</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>38610.131578947367</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>394858</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>15004604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>30000</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11">
+        <v>30216782</v>
+      </c>
+      <c r="N11">
+        <v>9610585</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P11">
+        <v>1041956</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>27419.894736842107</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>291322</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>11070236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">

--- a/CARROT/experiment/实验记录.xlsx
+++ b/CARROT/experiment/实验记录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Temp\scp55869\home\pengzheng\hello-world\CARROT\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Temp\scp31375\home\pengzheng\hello-world\CARROT\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" tabRatio="650" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" tabRatio="650" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="CARROT-FIXED" sheetId="16" r:id="rId16"/>
     <sheet name="CARROT-VARIABLE" sheetId="17" r:id="rId17"/>
     <sheet name="CARROT-VARIABLE (2)" sheetId="18" r:id="rId18"/>
+    <sheet name="CARROT-V3" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="139">
   <si>
     <t>程序：SplitCounter-v0.4</t>
   </si>
@@ -847,6 +848,38 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CARROT-Variable-v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARROT-Fixed-v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">program description: every time always find the least loaded switch in the downstream of the routing path </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be the highest carry counter.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I added a packet_in_controller in every carrot_upload process, then test.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the trendency is still present, then I deleted every carrot_update, but added a packet_in for every place().</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5095,7 +5128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
@@ -6849,7 +6882,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8459,7 +8492,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9157,6 +9190,1855 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <f>D3</f>
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L11" si="0">N3/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N3">
+        <v>8080963</v>
+      </c>
+      <c r="O3">
+        <f>N3/M3</f>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P3">
+        <v>886441</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="1">P3/C3</f>
+        <v>44322.05</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="2">J3/1000/1000</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="3">M3/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="T3">
+        <f>(S3-R3)/S3</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>53400</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V11" si="4">U3*C3</f>
+        <v>1068000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="5">D4</f>
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>80000</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4">
+        <v>42548423</v>
+      </c>
+      <c r="N4">
+        <v>12032580</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="6">N4/M4</f>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P4">
+        <v>1467185</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>73359.25</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T11" si="7">(S4-R4)/S4</f>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>60000</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5">
+        <v>30216782</v>
+      </c>
+      <c r="N5">
+        <v>9610585</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P5">
+        <v>1041956</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>52097.8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>30000</v>
+      </c>
+      <c r="L6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6">
+        <v>24820348</v>
+      </c>
+      <c r="N6">
+        <v>8080963</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>0.32557815063672757</v>
+      </c>
+      <c r="P6">
+        <v>886441</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>24623.361111111109</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>24.820348000000003</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>50000</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7">
+        <v>42548423</v>
+      </c>
+      <c r="N7">
+        <v>12032580</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P7">
+        <v>1467185</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>40755.138888888891</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>30000</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8">
+        <v>30216782</v>
+      </c>
+      <c r="N8">
+        <v>9610585</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P8">
+        <v>1041956</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>28943.222222222223</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>30000</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="N9">
+        <v>8080963</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.32557704877981175</v>
+      </c>
+      <c r="P9">
+        <v>886441</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>23327.394736842107</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>24.820432</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>40000</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10">
+        <v>42548423</v>
+      </c>
+      <c r="N10">
+        <v>12032580</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0.28279732012629472</v>
+      </c>
+      <c r="P10">
+        <v>1467185</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>38610.131578947367</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>42.548423</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>30000</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11">
+        <v>30216782</v>
+      </c>
+      <c r="N11">
+        <v>9610585</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.31805454995174537</v>
+      </c>
+      <c r="P11">
+        <v>1041956</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>27419.894736842107</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>5000</v>
+      </c>
+      <c r="G26">
+        <v>65000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1300000</v>
+      </c>
+      <c r="J26">
+        <v>219796</v>
+      </c>
+      <c r="K26">
+        <f>M26/I26</f>
+        <v>6.216149230769231</v>
+      </c>
+      <c r="L26" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M26">
+        <v>8080994</v>
+      </c>
+      <c r="N26">
+        <f>M26/L26</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O26">
+        <v>886441</v>
+      </c>
+      <c r="P26">
+        <f>O26/C26</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q34" si="8">I26/1000/1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26:R34" si="9">L26/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S26">
+        <f>(R26-Q26)/R26</f>
+        <v>0.94762379639484118</v>
+      </c>
+      <c r="T26">
+        <f>F26*E26</f>
+        <v>65000</v>
+      </c>
+      <c r="U26">
+        <f>T26*C26</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>80000</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" ref="K27:K34" si="10">M27/I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27">
+        <v>42548423</v>
+      </c>
+      <c r="M27">
+        <v>12032600</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N34" si="11">M27/L27</f>
+        <v>0.28279779017896856</v>
+      </c>
+      <c r="O27">
+        <v>1467185</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P34" si="12">O27/C27</f>
+        <v>73359.25</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>42.548423</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:S34" si="13">(R27-Q27)/R27</f>
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27:T34" si="14">F27*E27</f>
+        <v>1040000</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27:U34" si="15">T27*C27</f>
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>60000</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28">
+        <v>30216782</v>
+      </c>
+      <c r="M28">
+        <v>9610605</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>0.31805521183559521</v>
+      </c>
+      <c r="O28">
+        <v>1041956</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="12"/>
+        <v>52097.8</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="9"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="14"/>
+        <v>780000</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="15"/>
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>30000</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M29">
+        <v>8080994</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O29">
+        <v>886441</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="12"/>
+        <v>24623.361111111109</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="9"/>
+        <v>24.820432</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="14"/>
+        <v>390000</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="15"/>
+        <v>14040000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>50000</v>
+      </c>
+      <c r="K30" t="e">
+        <f>M30/I30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30">
+        <v>42548423</v>
+      </c>
+      <c r="M30">
+        <v>12032600</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>0.28279779017896856</v>
+      </c>
+      <c r="O30">
+        <v>1467185</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="12"/>
+        <v>40755.138888888891</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="9"/>
+        <v>42.548423</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="14"/>
+        <v>650000</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="15"/>
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>30000</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31">
+        <v>30216782</v>
+      </c>
+      <c r="M31">
+        <v>9610605</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>0.31805521183559521</v>
+      </c>
+      <c r="O31">
+        <v>1041956</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="12"/>
+        <v>28943.222222222223</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="14"/>
+        <v>390000</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="15"/>
+        <v>14040000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>30000</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M32">
+        <v>8080994</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O32">
+        <v>886441</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="12"/>
+        <v>23327.394736842107</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="9"/>
+        <v>24.820432</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="14"/>
+        <v>390000</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="15"/>
+        <v>14820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>40000</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33">
+        <v>42548423</v>
+      </c>
+      <c r="M33">
+        <v>12032600</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>0.28279779017896856</v>
+      </c>
+      <c r="O33">
+        <v>1467185</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="12"/>
+        <v>38610.131578947367</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="9"/>
+        <v>42.548423</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="14"/>
+        <v>520000</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="15"/>
+        <v>19760000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>30000</v>
+      </c>
+      <c r="K34" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34">
+        <v>30216782</v>
+      </c>
+      <c r="M34">
+        <v>9610605</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>0.31805521183559521</v>
+      </c>
+      <c r="O34">
+        <v>1041956</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="12"/>
+        <v>27419.894736842107</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="9"/>
+        <v>30.216781999999998</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="14"/>
+        <v>390000</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="15"/>
+        <v>14820000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>25000</v>
+      </c>
+      <c r="G41">
+        <v>316568</v>
+      </c>
+      <c r="H41">
+        <v>36753.4</v>
+      </c>
+      <c r="I41">
+        <v>6331364</v>
+      </c>
+      <c r="J41">
+        <v>1135680</v>
+      </c>
+      <c r="K41">
+        <f>M41/I41</f>
+        <v>1.2763432966419241</v>
+      </c>
+      <c r="L41" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M41">
+        <v>8080994</v>
+      </c>
+      <c r="N41">
+        <f>M41/L41</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O41">
+        <v>886441</v>
+      </c>
+      <c r="P41">
+        <f>O41/C41</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41" si="16">I41/1000/1000</f>
+        <v>6.3313639999999998</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41" si="17">L41/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S41">
+        <f>(R41-Q41)/R41</f>
+        <v>0.74491322310586694</v>
+      </c>
+      <c r="T41">
+        <f>F41*E41</f>
+        <v>325000</v>
+      </c>
+      <c r="U41">
+        <f>T41*C41</f>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>25000</v>
+      </c>
+      <c r="G43">
+        <v>316568</v>
+      </c>
+      <c r="H43">
+        <v>36753.4</v>
+      </c>
+      <c r="I43">
+        <v>6331364</v>
+      </c>
+      <c r="J43">
+        <v>3070756</v>
+      </c>
+      <c r="K43">
+        <f>M43/I43</f>
+        <v>1.2763432966419241</v>
+      </c>
+      <c r="L43" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M43">
+        <v>8080994</v>
+      </c>
+      <c r="N43">
+        <f>M43/L43</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O43">
+        <v>886441</v>
+      </c>
+      <c r="P43">
+        <f>O43/C43</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ref="Q43" si="18">I43/1000/1000</f>
+        <v>6.3313639999999998</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43" si="19">L43/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S43">
+        <f>(R43-Q43)/R43</f>
+        <v>0.74491322310586694</v>
+      </c>
+      <c r="T43">
+        <f>F43*E43</f>
+        <v>325000</v>
+      </c>
+      <c r="U43">
+        <f>T43*C43</f>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>50000</v>
+      </c>
+      <c r="G44">
+        <v>612682</v>
+      </c>
+      <c r="H44">
+        <v>112381</v>
+      </c>
+      <c r="I44">
+        <v>12253631</v>
+      </c>
+      <c r="J44">
+        <v>3691976</v>
+      </c>
+      <c r="K44">
+        <f>M44/I44</f>
+        <v>0.65947750507584246</v>
+      </c>
+      <c r="L44" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M44">
+        <v>8080994</v>
+      </c>
+      <c r="N44">
+        <f>M44/L44</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O44">
+        <v>886441</v>
+      </c>
+      <c r="P44">
+        <f>O44/C44</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ref="Q44" si="20">I44/1000/1000</f>
+        <v>12.253630999999999</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ref="R44" si="21">L44/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S44">
+        <f>(R44-Q44)/R44</f>
+        <v>0.50630871372424147</v>
+      </c>
+      <c r="T44">
+        <f>F44*E44</f>
+        <v>650000</v>
+      </c>
+      <c r="U44">
+        <f>T44*C44</f>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>5000</v>
+      </c>
+      <c r="G45">
+        <v>65000</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1300000</v>
+      </c>
+      <c r="J45">
+        <v>2012474</v>
+      </c>
+      <c r="K45">
+        <f>M45/I45</f>
+        <v>6.216149230769231</v>
+      </c>
+      <c r="L45" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M45">
+        <v>8080994</v>
+      </c>
+      <c r="N45">
+        <f>M45/L45</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O45">
+        <v>886441</v>
+      </c>
+      <c r="P45">
+        <f>O45/C45</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45" si="22">I45/1000/1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ref="R45" si="23">L45/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S45">
+        <f>(R45-Q45)/R45</f>
+        <v>0.94762379639484118</v>
+      </c>
+      <c r="T45">
+        <f>F45*E45</f>
+        <v>65000</v>
+      </c>
+      <c r="U45">
+        <f>T45*C45</f>
+        <v>1300000</v>
+      </c>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>5000</v>
+      </c>
+      <c r="G47">
+        <v>65000</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1300000</v>
+      </c>
+      <c r="J47">
+        <v>2112474</v>
+      </c>
+      <c r="K47">
+        <f>M47/I47</f>
+        <v>6.216149230769231</v>
+      </c>
+      <c r="L47" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M47">
+        <v>8080994</v>
+      </c>
+      <c r="N47">
+        <f>M47/L47</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O47">
+        <v>886441</v>
+      </c>
+      <c r="P47">
+        <f>O47/C47</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47" si="24">I47/1000/1000</f>
+        <v>1.3</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47" si="25">L47/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S47">
+        <f>(R47-Q47)/R47</f>
+        <v>0.94762379639484118</v>
+      </c>
+      <c r="T47">
+        <f>F47*E47</f>
+        <v>65000</v>
+      </c>
+      <c r="U47">
+        <f>T47*C47</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>50000</v>
+      </c>
+      <c r="G48">
+        <v>612682</v>
+      </c>
+      <c r="H48">
+        <v>112381</v>
+      </c>
+      <c r="I48">
+        <v>12253631</v>
+      </c>
+      <c r="J48">
+        <v>4636554</v>
+      </c>
+      <c r="K48">
+        <f>M48/I48</f>
+        <v>0.65947750507584246</v>
+      </c>
+      <c r="L48" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M48">
+        <v>8080994</v>
+      </c>
+      <c r="N48">
+        <f>M48/L48</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O48">
+        <v>886441</v>
+      </c>
+      <c r="P48">
+        <f>O48/C48</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ref="Q48" si="26">I48/1000/1000</f>
+        <v>12.253630999999999</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ref="R48" si="27">L48/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S48">
+        <f>(R48-Q48)/R48</f>
+        <v>0.50630871372424147</v>
+      </c>
+      <c r="T48">
+        <f>F48*E48</f>
+        <v>650000</v>
+      </c>
+      <c r="U48">
+        <f>T48*C48</f>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>25000</v>
+      </c>
+      <c r="G49">
+        <v>316568</v>
+      </c>
+      <c r="H49">
+        <v>36753.4</v>
+      </c>
+      <c r="I49">
+        <v>6331364</v>
+      </c>
+      <c r="J49">
+        <v>3557784</v>
+      </c>
+      <c r="K49">
+        <f>M49/I49</f>
+        <v>1.2763432966419241</v>
+      </c>
+      <c r="L49" s="4">
+        <v>24820432</v>
+      </c>
+      <c r="M49">
+        <v>8080994</v>
+      </c>
+      <c r="N49">
+        <f>M49/L49</f>
+        <v>0.32557829775082076</v>
+      </c>
+      <c r="O49">
+        <v>886441</v>
+      </c>
+      <c r="P49">
+        <f>O49/C49</f>
+        <v>44322.05</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ref="Q49" si="28">I49/1000/1000</f>
+        <v>6.3313639999999998</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ref="R49" si="29">L49/1000/1000</f>
+        <v>24.820432</v>
+      </c>
+      <c r="S49">
+        <f>(R49-Q49)/R49</f>
+        <v>0.74491322310586694</v>
+      </c>
+      <c r="T49">
+        <f>F49*E49</f>
+        <v>325000</v>
+      </c>
+      <c r="U49">
+        <f>T49*C49</f>
+        <v>6500000</v>
       </c>
     </row>
   </sheetData>
@@ -9339,7 +11221,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
